--- a/deployment/Omaha_Cal_Info_CE05MOAS-GL386_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE05MOAS-GL386_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Ref Des</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>124°33.140' W</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,22 +745,22 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625"/>
-    <col min="5" max="5" width="24.109375"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="9" width="18.6640625"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="14.88671875"/>
-    <col min="12" max="12" width="51.6640625"/>
-    <col min="13" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125"/>
+    <col min="5" max="5" width="24.140625"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="9" width="18.7109375"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="14.85546875"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
@@ -786,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -841,26 +853,26 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="28.88671875"/>
-    <col min="9" max="9" width="11.44140625"/>
-    <col min="10" max="10" width="11.88671875"/>
-    <col min="11" max="11" width="14.44140625"/>
-    <col min="12" max="12" width="13.44140625"/>
-    <col min="13" max="1027" width="8.6640625"/>
+    <col min="7" max="8" width="28.85546875"/>
+    <col min="9" max="9" width="11.42578125"/>
+    <col min="10" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="14.42578125"/>
+    <col min="12" max="12" width="13.42578125"/>
+    <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -886,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -905,15 +917,19 @@
       <c r="F2" s="10">
         <v>50164</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="23">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -928,7 +944,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -959,7 +975,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -990,7 +1006,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1037,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1068,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="9"/>
@@ -1067,7 +1083,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1119,7 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1155,7 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1191,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1227,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="9"/>
@@ -1231,7 +1247,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1274,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1273,7 +1289,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1316,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1315,7 +1331,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE05MOAS-GL386_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE05MOAS-GL386_00001.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000371</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +856,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1347,9 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="10">
         <v>386</v>
       </c>
